--- a/results/result_processTime_waitTasks/RandomRequestNumberclientv5#loops1#requests_batch200#Thu-Jul-25-23-28-51-2024processTime#waitTasksresult.xlsx
+++ b/results/result_processTime_waitTasks/RandomRequestNumberclientv5#loops1#requests_batch200#Thu-Jul-25-23-28-51-2024processTime#waitTasksresult.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model_fit\training\results\result_processTime_waitTasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\training\results\result_processTime_waitTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DF47AE-3916-4A65-AB1D-5238E44F3510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018195E1-D703-4591-B727-A88660A6E828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19788" yWindow="1392" windowWidth="21396" windowHeight="13128" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5925" yWindow="3015" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -152,17 +152,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -171,7 +171,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -502,17 +502,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>116.58492207527161</v>
       </c>
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>176.42390751838681</v>
       </c>
@@ -554,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>104.58222985267641</v>
       </c>
@@ -568,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>122.0510075092316</v>
       </c>
@@ -582,7 +582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>130.04084897041321</v>
       </c>
@@ -596,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>148.69040894508359</v>
       </c>
@@ -610,7 +610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>81.196295976638794</v>
       </c>
@@ -624,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>57.226448059082031</v>
       </c>
@@ -638,7 +638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.29053378105163569</v>
       </c>
@@ -652,7 +652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>41.989393711090088</v>
       </c>
@@ -666,7 +666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>145.91455721855161</v>
       </c>
@@ -680,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>33.635069847106926</v>
       </c>
@@ -694,7 +694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>22.680725812911991</v>
       </c>
@@ -708,7 +708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>85.235808610916138</v>
       </c>
@@ -722,7 +722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>105.52962422370911</v>
       </c>
@@ -736,7 +736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.28572320938110352</v>
       </c>
@@ -750,7 +750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>65.112318515777588</v>
       </c>
@@ -764,7 +764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>182.39506220817569</v>
       </c>
@@ -778,7 +778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>188.30164361000061</v>
       </c>
@@ -792,7 +792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>207.68161940574649</v>
       </c>
@@ -806,7 +806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>153.57240986824041</v>
       </c>
@@ -820,7 +820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>78.009572982788086</v>
       </c>
@@ -834,7 +834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>9.9453701972961426</v>
       </c>
@@ -848,7 +848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>203.4148499965668</v>
       </c>
@@ -862,7 +862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>161.97775101661679</v>
       </c>
@@ -876,7 +876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>31.28541898727417</v>
       </c>
@@ -890,7 +890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>89.279766798019409</v>
       </c>
@@ -904,7 +904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>16.04090142250061</v>
       </c>
@@ -918,7 +918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>155.3859429359436</v>
       </c>
@@ -932,7 +932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>143.8915259838104</v>
       </c>
@@ -946,7 +946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>177.56531691551211</v>
       </c>
@@ -960,7 +960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>129.6598756313324</v>
       </c>
@@ -974,7 +974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>69.597108364105225</v>
       </c>
@@ -988,7 +988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>22.581783294677731</v>
       </c>
@@ -1002,12 +1002,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>0.28763842582702642</v>
       </c>
       <c r="B36">
-        <v>1.251045227050781</v>
+        <v>1.2510452270507799</v>
       </c>
       <c r="C36">
         <v>0.96340680122375488</v>
@@ -1016,7 +1016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>19.27716064453125</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>146.1811625957489</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>90.988257646560669</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>28.484341144561771</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>113.8583989143372</v>
       </c>
